--- a/_sprints/sprint1/burndown/Sprint 1 Burndown Chart version 2.xlsx
+++ b/_sprints/sprint1/burndown/Sprint 1 Burndown Chart version 2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Connor\Grad School\Emerging Processes\adventra-app\_sprints\sprint1\burndown\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Connor\Grad School\Emerging Processes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFD31365-5066-46D9-A96A-64C37C1F971A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{028FAE5E-A74F-4C89-BAD8-25C60E9A22A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2250" yWindow="2250" windowWidth="21600" windowHeight="11295" xr2:uid="{5E7660C9-43B9-406B-90F3-620F8B00C16F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5E7660C9-43B9-406B-90F3-620F8B00C16F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -292,52 +292,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>16</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>16</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>16</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>16</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>16</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>16</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>13</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>13</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>13</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>13</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>13</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>8</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -454,64 +454,64 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>16</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15.2</c:v>
+                  <c:v>17.100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>16.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.428571428571429</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>14.4</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>13.714285714285715</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>12.8</c:v>
-                </c:pt>
                 <c:pt idx="5">
-                  <c:v>12</c:v>
+                  <c:v>13.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11.2</c:v>
+                  <c:v>12.6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10.4</c:v>
+                  <c:v>11.7</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.6</c:v>
+                  <c:v>10.8</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8.8000000000000007</c:v>
+                  <c:v>9.9</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>8.1</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>7.1999999999999993</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>6.4</c:v>
-                </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.6</c:v>
+                  <c:v>6.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.8000000000000007</c:v>
+                  <c:v>5.4</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4</c:v>
+                  <c:v>4.5</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.1999999999999993</c:v>
+                  <c:v>3.5999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.4000000000000004</c:v>
+                  <c:v>2.6999999999999993</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.5999999999999996</c:v>
+                  <c:v>1.8000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.80000000000000071</c:v>
+                  <c:v>0.89999999999999858</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>0</c:v>
@@ -640,7 +640,7 @@
         <c:axId val="1203719647"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="16"/>
+          <c:max val="18"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1673,8 +1673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2833B33-3F9B-43E4-AB7A-DBE02589F971}">
   <dimension ref="C6:T35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1705,11 +1705,11 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F7" s="3">
-        <f>16 - (16*(D7-1)/20)</f>
-        <v>16</v>
+        <f>18 - (18*(D7-1)/20)</f>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="3:20" x14ac:dyDescent="0.25">
@@ -1720,11 +1720,11 @@
         <v>2</v>
       </c>
       <c r="E8">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F8" s="3">
-        <f>16 - (16*(D8-1)/20)</f>
-        <v>15.2</v>
+        <f>18 - (18*(D8-1)/20)</f>
+        <v>17.100000000000001</v>
       </c>
     </row>
     <row r="9" spans="3:20" x14ac:dyDescent="0.25">
@@ -1735,11 +1735,11 @@
         <v>3</v>
       </c>
       <c r="E9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F9" s="3">
-        <f>16 - (16*(D9-1)/20)</f>
-        <v>14.4</v>
+        <f>18 - (18*(D9-1)/20)</f>
+        <v>16.2</v>
       </c>
     </row>
     <row r="10" spans="3:20" x14ac:dyDescent="0.25">
@@ -1750,11 +1750,11 @@
         <v>4</v>
       </c>
       <c r="E10">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F10" s="3">
-        <f>16 - (16*(D10-1)/21)</f>
-        <v>13.714285714285715</v>
+        <f>18 - (18*(D10-1)/21)</f>
+        <v>15.428571428571429</v>
       </c>
     </row>
     <row r="11" spans="3:20" x14ac:dyDescent="0.25">
@@ -1765,11 +1765,11 @@
         <v>5</v>
       </c>
       <c r="E11">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F11" s="3">
-        <f t="shared" ref="F11:F27" si="0">16 - (16*(D11-1)/20)</f>
-        <v>12.8</v>
+        <f t="shared" ref="F11:F27" si="0">18 - (18*(D11-1)/20)</f>
+        <v>14.4</v>
       </c>
     </row>
     <row r="12" spans="3:20" x14ac:dyDescent="0.25">
@@ -1780,11 +1780,11 @@
         <v>6</v>
       </c>
       <c r="E12">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F12" s="3">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="13" spans="3:20" x14ac:dyDescent="0.25">
@@ -1795,11 +1795,11 @@
         <v>7</v>
       </c>
       <c r="E13">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F13" s="3">
         <f t="shared" si="0"/>
-        <v>11.2</v>
+        <v>12.6</v>
       </c>
     </row>
     <row r="14" spans="3:20" x14ac:dyDescent="0.25">
@@ -1810,11 +1810,11 @@
         <v>8</v>
       </c>
       <c r="E14">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F14" s="3">
         <f t="shared" si="0"/>
-        <v>10.4</v>
+        <v>11.7</v>
       </c>
     </row>
     <row r="15" spans="3:20" x14ac:dyDescent="0.25">
@@ -1825,11 +1825,11 @@
         <v>9</v>
       </c>
       <c r="E15">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F15" s="3">
         <f t="shared" si="0"/>
-        <v>9.6</v>
+        <v>10.8</v>
       </c>
       <c r="T15" t="s">
         <v>4</v>
@@ -1843,11 +1843,11 @@
         <v>10</v>
       </c>
       <c r="E16">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F16" s="3">
         <f t="shared" si="0"/>
-        <v>8.8000000000000007</v>
+        <v>9.9</v>
       </c>
     </row>
     <row r="17" spans="3:6" x14ac:dyDescent="0.25">
@@ -1858,11 +1858,11 @@
         <v>11</v>
       </c>
       <c r="E17">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F17" s="3">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="3:6" x14ac:dyDescent="0.25">
@@ -1873,11 +1873,11 @@
         <v>12</v>
       </c>
       <c r="E18">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F18" s="3">
         <f t="shared" si="0"/>
-        <v>7.1999999999999993</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="19" spans="3:6" x14ac:dyDescent="0.25">
@@ -1888,11 +1888,11 @@
         <v>13</v>
       </c>
       <c r="E19">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F19" s="3">
         <f t="shared" si="0"/>
-        <v>6.4</v>
+        <v>7.1999999999999993</v>
       </c>
     </row>
     <row r="20" spans="3:6" x14ac:dyDescent="0.25">
@@ -1903,11 +1903,11 @@
         <v>14</v>
       </c>
       <c r="E20">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F20" s="3">
         <f t="shared" si="0"/>
-        <v>5.6</v>
+        <v>6.3000000000000007</v>
       </c>
     </row>
     <row r="21" spans="3:6" x14ac:dyDescent="0.25">
@@ -1918,11 +1918,11 @@
         <v>15</v>
       </c>
       <c r="E21">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F21" s="3">
         <f t="shared" si="0"/>
-        <v>4.8000000000000007</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="22" spans="3:6" x14ac:dyDescent="0.25">
@@ -1933,11 +1933,11 @@
         <v>16</v>
       </c>
       <c r="E22">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F22" s="3">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="23" spans="3:6" x14ac:dyDescent="0.25">
@@ -1949,7 +1949,7 @@
       </c>
       <c r="F23" s="3">
         <f t="shared" si="0"/>
-        <v>3.1999999999999993</v>
+        <v>3.5999999999999996</v>
       </c>
     </row>
     <row r="24" spans="3:6" x14ac:dyDescent="0.25">
@@ -1961,7 +1961,7 @@
       </c>
       <c r="F24" s="3">
         <f t="shared" si="0"/>
-        <v>2.4000000000000004</v>
+        <v>2.6999999999999993</v>
       </c>
     </row>
     <row r="25" spans="3:6" x14ac:dyDescent="0.25">
@@ -1973,7 +1973,7 @@
       </c>
       <c r="F25" s="3">
         <f t="shared" si="0"/>
-        <v>1.5999999999999996</v>
+        <v>1.8000000000000007</v>
       </c>
     </row>
     <row r="26" spans="3:6" x14ac:dyDescent="0.25">
@@ -1985,7 +1985,7 @@
       </c>
       <c r="F26" s="3">
         <f t="shared" si="0"/>
-        <v>0.80000000000000071</v>
+        <v>0.89999999999999858</v>
       </c>
     </row>
     <row r="27" spans="3:6" x14ac:dyDescent="0.25">

--- a/_sprints/sprint1/burndown/Sprint 1 Burndown Chart version 2.xlsx
+++ b/_sprints/sprint1/burndown/Sprint 1 Burndown Chart version 2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Connor\Grad School\Emerging Processes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Connor\Grad School\Emerging Processes\adventra-app\_sprints\sprint1\burndown\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{028FAE5E-A74F-4C89-BAD8-25C60E9A22A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CFEB5BC-7EE4-43CB-8DAE-2DB369FB1F46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5E7660C9-43B9-406B-90F3-620F8B00C16F}"/>
+    <workbookView xWindow="2250" yWindow="2250" windowWidth="21600" windowHeight="11295" xr2:uid="{5E7660C9-43B9-406B-90F3-620F8B00C16F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -150,7 +150,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Sprint 3 - Story Points Burndown Curve</a:t>
+              <a:t>Sprint 1 - Story Points Burndown Curve</a:t>
             </a:r>
           </a:p>
         </c:rich>
